--- a/biology/Zoologie/Corneille_à_tête_brune/Corneille_à_tête_brune.xlsx
+++ b/biology/Zoologie/Corneille_à_tête_brune/Corneille_à_tête_brune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Corneille_%C3%A0_t%C3%AAte_brune</t>
+          <t>Corneille_à_tête_brune</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corvus fuscicapillus
 La Corneille à tête brune (Corvus fuscicapillus) est une espèce d'oiseaux de l'ordre des Passeriformes et de la famille des Corvidae, endémique à l'Indonésie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Corneille_%C3%A0_t%C3%AAte_brune</t>
+          <t>Corneille_à_tête_brune</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mesurant 45 cm, c'est un corvidé de taille moyenne avec une queue courte à bout carré et un bec massif et fortement arqué[1]. Le mâle possède un plumage noir brillant, à l'exception de la tête et du cou de couleur brun foncé ; l'iris est bleu et le bec et les pattes sont noirs. La femelle est similaire au mâle, mais possède un bec jaune à l'extrémité (et parfois la base) noire[1]. Le juvénile a un plumage plus ébouriffé et plus brun que l'adulte, avec le bec jaune.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mesurant 45 cm, c'est un corvidé de taille moyenne avec une queue courte à bout carré et un bec massif et fortement arqué. Le mâle possède un plumage noir brillant, à l'exception de la tête et du cou de couleur brun foncé ; l'iris est bleu et le bec et les pattes sont noirs. La femelle est similaire au mâle, mais possède un bec jaune à l'extrémité (et parfois la base) noire. Le juvénile a un plumage plus ébouriffé et plus brun que l'adulte, avec le bec jaune.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Corneille_%C3%A0_t%C3%AAte_brune</t>
+          <t>Corneille_à_tête_brune</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Corneille à tête brune est présente dans les îles Aru, l'île de Waigeo et celle de Pulau Gemien, ainsi que sur la côte nord-ouest de la Papouasie occidentale[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Corneille à tête brune est présente dans les îles Aru, l'île de Waigeo et celle de Pulau Gemien, ainsi que sur la côte nord-ouest de la Papouasie occidentale.
 Elle fréquente les plaines et les piémonts, dans la forêt pluviale et dans les mangroves.
 </t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Corneille_%C3%A0_t%C3%AAte_brune</t>
+          <t>Corneille_à_tête_brune</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +591,14 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'oiseau est rare dans sa zone de répartition et sa biologie est mal connue[1].
-Elle se nourrit de fruits[1]. Elle cherche sa nourriture dans la canopée, seule, en couple ou en petits groupes. 
-Aucune information n'est disponible sur sa reproduction[1].
-Elle émet des croassements rauques, étirés et dissyllabiques, transcrits gakock gakock, ainsi que des cris , tous plus graves que ceux du Corbeau de Torres[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'oiseau est rare dans sa zone de répartition et sa biologie est mal connue.
+Elle se nourrit de fruits. Elle cherche sa nourriture dans la canopée, seule, en couple ou en petits groupes. 
+Aucune information n'est disponible sur sa reproduction.
+Elle émet des croassements rauques, étirés et dissyllabiques, transcrits gakock gakock, ainsi que des cris , tous plus graves que ceux du Corbeau de Torres.
 </t>
         </is>
       </c>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Corneille_%C3%A0_t%C3%AAte_brune</t>
+          <t>Corneille_à_tête_brune</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Elle a été décrite par le naturaliste britannique George Robert Gray en 1859. Deux sous-espèces sont reconnues[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Elle a été décrite par le naturaliste britannique George Robert Gray en 1859. Deux sous-espèces sont reconnues :
 C. f. megarhynchus, Bernstein, 1864, en Papouasie occidentale
 C. f. fuscicapillus, G.R. Gray, 1859, dans les îles Aru</t>
         </is>
